--- a/biology/Médecine/1552_en_santé_et_médecine/1552_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1552_en_santé_et_médecine/1552_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1552_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1552_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1552 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1552_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1552_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1er janvier : les hospices de Beaune accueillent leur premier patient[1].
-Juin : au siège de Damvillers, Ambroise Paré redécouvre[2] la ligature des artères après amputation.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1er janvier : les hospices de Beaune accueillent leur premier patient.
+Juin : au siège de Damvillers, Ambroise Paré redécouvre la ligature des artères après amputation.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1552_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1552_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jacques Daléchamps édite à Lyon, chez Guillaume Rouillé, le « traité sur la peste » de Raymond Chalin de Vinario (fl. 1350-1382[3]).
-Parution à Bologne, chez Bartolomeo Bonardo, du traité De sclopetorum et bombardarum vulnerum curatione (« Du traitement des blessures causées par les arquebuses et les canons »), de  Bartolomeo Maggi (it) (1472-1552), l'année même de la mort de l'auteur[4].
-Alfonso Ferri (it) († 1595), chirurgien italien, fait paraître à Rome, chez Valerio et Luigi Dorici, son traité sur les blessures par arquebuse[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jacques Daléchamps édite à Lyon, chez Guillaume Rouillé, le « traité sur la peste » de Raymond Chalin de Vinario (fl. 1350-1382).
+Parution à Bologne, chez Bartolomeo Bonardo, du traité De sclopetorum et bombardarum vulnerum curatione (« Du traitement des blessures causées par les arquebuses et les canons »), de  Bartolomeo Maggi (it) (1472-1552), l'année même de la mort de l'auteur.
+Alfonso Ferri (it) († 1595), chirurgien italien, fait paraître à Rome, chez Valerio et Luigi Dorici, son traité sur les blessures par arquebuse.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1552_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1552_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>27 février :  Ludovico Settala (mort en 1633), médecin italien[6].
-Giulio Cesare Casseri (mort en 1616), anatomiste italien, le premier à décrire le polygone de Willis[7], surtout connu comme auteur de Tabulae anatomicae (1627) et d'un De Vocis auditusque organis (c.1600[8],[9]).
-Lorenz Scholz von Rosenau (mort en 1599), médecin et botaniste allemand, auteur de Aphorismorum medicinalium[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>27 février :  Ludovico Settala (mort en 1633), médecin italien.
+Giulio Cesare Casseri (mort en 1616), anatomiste italien, le premier à décrire le polygone de Willis, surtout connu comme auteur de Tabulae anatomicae (1627) et d'un De Vocis auditusque organis (c.1600,).
+Lorenz Scholz von Rosenau (mort en 1599), médecin et botaniste allemand, auteur de Aphorismorum medicinalium.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1552_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1552_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>12 décembre : Paul Jove (né en 1483), historien lombard, docteur en médecine, auteur d'un Traité des poissons romains (De romanis piscibus libellus) paru en 1524[11].
-Bartolomeo Maggi (it) (né en 1472), chirurgien et médecin à Bologne, au service du cardinal de Monte qui, élu pape sous le nom de Jules III, en fait son Premier médecin, et auteur d'un traité sur les plaies par arme à feu (De sclopetorum et bombardarum vulnerum curatione), paru l'année même de sa mort[12].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>12 décembre : Paul Jove (né en 1483), historien lombard, docteur en médecine, auteur d'un Traité des poissons romains (De romanis piscibus libellus) paru en 1524.
+Bartolomeo Maggi (it) (né en 1472), chirurgien et médecin à Bologne, au service du cardinal de Monte qui, élu pape sous le nom de Jules III, en fait son Premier médecin, et auteur d'un traité sur les plaies par arme à feu (De sclopetorum et bombardarum vulnerum curatione), paru l'année même de sa mort.</t>
         </is>
       </c>
     </row>
